--- a/AAJC Vis/tables.xlsx
+++ b/AAJC Vis/tables.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamkhan/Documents/Demo Advisors/AAJC/AAJC Vis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F741C0-88B8-DA42-96B0-C2B63D689BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D84DDD-A12F-9F4C-BE10-C4DB43E2F6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="740" windowWidth="13140" windowHeight="17220" activeTab="1" xr2:uid="{E92302FC-8FE6-0E45-8117-F34A787DBBF5}"/>
+    <workbookView xWindow="11080" yWindow="740" windowWidth="18320" windowHeight="17200" activeTab="1" xr2:uid="{E92302FC-8FE6-0E45-8117-F34A787DBBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="national coverage by race" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="NY and Hawaii Population data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -171,7 +171,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,7 +464,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -474,15 +473,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -534,19 +524,28 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -555,16 +554,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,32 +890,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="14">
+      <c r="B3" s="9"/>
+      <c r="C3" s="35">
         <v>2010</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -928,7 +927,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -942,7 +941,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -957,25 +956,25 @@
     </row>
     <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="14">
+      <c r="B10" s="9"/>
+      <c r="C10" s="35">
         <v>2010</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
@@ -987,7 +986,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1001,7 +1000,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1029,345 +1028,346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9137B72E-EC4F-DA49-ACCD-FB2B2C97DFAE}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="38"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>1975842</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="16">
         <v>72154</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>378683</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>222265</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="16">
         <v>687936</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="16">
         <v>59280</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="4">
         <v>2171220</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>79090</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="32">
         <v>419208</v>
       </c>
       <c r="F7" s="4">
         <v>250582</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>719333</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="12">
         <v>63309</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>20201249</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="19">
         <v>1472654</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>2736074</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>1694251</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="19">
         <v>2405464</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="19">
         <v>495747</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="26">
-        <f>C6/C8</f>
+      <c r="C9" s="22">
+        <f t="shared" ref="C9:H9" si="0">C6/C8</f>
         <v>9.7807912768165972E-2</v>
       </c>
-      <c r="D9" s="27">
-        <f>D6/D8</f>
+      <c r="D9" s="23">
+        <f t="shared" si="0"/>
         <v>4.8995894487096084E-2</v>
       </c>
-      <c r="E9" s="28">
-        <f>E6/E8</f>
+      <c r="E9" s="24">
+        <f t="shared" si="0"/>
         <v>0.13840378586251686</v>
       </c>
-      <c r="F9" s="26">
-        <f>F6/F8</f>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
         <v>0.13118776379650948</v>
       </c>
-      <c r="G9" s="27">
-        <f>G6/G8</f>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
         <v>0.28598889860750359</v>
       </c>
-      <c r="H9" s="27">
-        <f>H6/H8</f>
+      <c r="H9" s="23">
+        <f t="shared" si="0"/>
         <v>0.11957712300830867</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="30">
-        <f>C7/C8</f>
+      <c r="C10" s="26">
+        <f t="shared" ref="C10:H10" si="1">C7/C8</f>
         <v>0.1074794929759046</v>
       </c>
-      <c r="D10" s="31">
-        <f>D7/D8</f>
+      <c r="D10" s="27">
+        <f t="shared" si="1"/>
         <v>5.3705758446994337E-2</v>
       </c>
-      <c r="E10" s="32">
-        <f>E7/E8</f>
+      <c r="E10" s="28">
+        <f t="shared" si="1"/>
         <v>0.15321515426848836</v>
       </c>
-      <c r="F10" s="30">
-        <f>F7/F8</f>
+      <c r="F10" s="26">
+        <f t="shared" si="1"/>
         <v>0.14790134401573321</v>
       </c>
-      <c r="G10" s="31">
-        <f>G7/G8</f>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
         <v>0.29904126605095732</v>
       </c>
-      <c r="H10" s="31">
-        <f>H7/H8</f>
+      <c r="H10" s="27">
+        <f t="shared" si="1"/>
         <v>0.12770425237066488</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="43" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="15">
         <v>149949</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <v>26362</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>97596</v>
       </c>
       <c r="F15" s="4">
         <v>15</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="16">
         <v>6884</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="16">
         <v>19092</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="18">
         <v>345220</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="16">
         <v>59152</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>228009</v>
       </c>
       <c r="F16" s="4">
         <v>18</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="16">
         <v>17328</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="16">
         <v>40713</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="15">
         <v>1455271</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="19">
         <v>200629</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="20">
         <v>1016508</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="15">
         <v>82</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="19">
         <v>73298</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="19">
         <v>164754</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="26">
-        <f>C15/C17</f>
+      <c r="C18" s="22">
+        <f t="shared" ref="C18:H18" si="2">C15/C17</f>
         <v>0.10303854058797296</v>
       </c>
-      <c r="D18" s="27">
-        <f>D15/D17</f>
+      <c r="D18" s="23">
+        <f t="shared" si="2"/>
         <v>0.13139675719861038</v>
       </c>
-      <c r="E18" s="28">
-        <f>E15/E17</f>
+      <c r="E18" s="24">
+        <f t="shared" si="2"/>
         <v>9.601104959331358E-2</v>
       </c>
-      <c r="F18" s="26">
-        <f>F15/F17</f>
+      <c r="F18" s="22">
+        <f t="shared" si="2"/>
         <v>0.18292682926829268</v>
       </c>
-      <c r="G18" s="27">
-        <f>G15/G17</f>
+      <c r="G18" s="23">
+        <f t="shared" si="2"/>
         <v>9.3917978662446458E-2</v>
       </c>
-      <c r="H18" s="27">
-        <f>H15/H17</f>
+      <c r="H18" s="23">
+        <f t="shared" si="2"/>
         <v>0.11588186022797625</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="26">
         <v>0.23699999999999999</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="27">
         <f>D16/D17</f>
         <v>0.29483275099811096</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="28">
         <f>E16/E17</f>
         <v>0.22430615400960938</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="26">
         <f>F16/F17</f>
         <v>0.21951219512195122</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="27">
         <f>G16/G17</f>
         <v>0.23640481322819176</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="27">
         <f>H16/H17</f>
         <v>0.24711387887395753</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1376,7 +1376,6 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
